--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2677,28 +2677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.40773732520131</v>
+        <v>107.6283463519651</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1221458979657</v>
+        <v>147.261851706224</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2304884649311</v>
+        <v>133.2073872627289</v>
       </c>
       <c r="AD2" t="n">
-        <v>83407.73732520131</v>
+        <v>107628.3463519651</v>
       </c>
       <c r="AE2" t="n">
-        <v>114122.1458979657</v>
+        <v>147261.851706224</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.594099024966256e-06</v>
+        <v>8.500285997601901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103230.4884649311</v>
+        <v>133207.3872627289</v>
       </c>
     </row>
     <row r="3">
@@ -2783,28 +2783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.09598694915611</v>
+        <v>70.37692841740574</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.48949235786247</v>
+        <v>96.29281827161266</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.90312677144972</v>
+        <v>87.10276684361295</v>
       </c>
       <c r="AD3" t="n">
-        <v>58095.9869491561</v>
+        <v>70376.92841740574</v>
       </c>
       <c r="AE3" t="n">
-        <v>79489.49235786247</v>
+        <v>96292.81827161266</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.032157686789224e-06</v>
+        <v>1.116107102648222e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.52025462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>71903.12677144972</v>
+        <v>87102.76684361296</v>
       </c>
     </row>
     <row r="4">
@@ -2889,28 +2889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.31008578302963</v>
+        <v>67.42043505068708</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.67769947708491</v>
+        <v>92.24761361598823</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.45512605332745</v>
+        <v>83.44363084283965</v>
       </c>
       <c r="AD4" t="n">
-        <v>55310.08578302963</v>
+        <v>67420.43505068707</v>
       </c>
       <c r="AE4" t="n">
-        <v>75677.69947708491</v>
+        <v>92247.61361598823</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.488227419433687e-06</v>
+        <v>1.200491943751125e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.340856481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>68455.12605332745</v>
+        <v>83443.63084283966</v>
       </c>
     </row>
     <row r="5">
@@ -2995,28 +2995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.62690556237934</v>
+        <v>65.73725483003676</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.37469804252177</v>
+        <v>89.9446121814251</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.37191984339546</v>
+        <v>81.36042463290767</v>
       </c>
       <c r="AD5" t="n">
-        <v>53626.90556237934</v>
+        <v>65737.25483003676</v>
       </c>
       <c r="AE5" t="n">
-        <v>73374.69804252178</v>
+        <v>89944.61218142509</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.784851308191854e-06</v>
+        <v>1.255375129212801e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.239583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>66371.91984339546</v>
+        <v>81360.42463290767</v>
       </c>
     </row>
     <row r="6">
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.40619750087494</v>
+        <v>64.51654676853236</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.70447141893342</v>
+        <v>88.27438555783675</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.86109730458408</v>
+        <v>79.84960209409628</v>
       </c>
       <c r="AD6" t="n">
-        <v>52406.19750087494</v>
+        <v>64516.54676853237</v>
       </c>
       <c r="AE6" t="n">
-        <v>71704.47141893342</v>
+        <v>88274.38555783675</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.96325629227675e-06</v>
+        <v>1.288384722168416e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.181712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>64861.09730458407</v>
+        <v>79849.60209409628</v>
       </c>
     </row>
     <row r="7">
@@ -3207,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.65034897644472</v>
+        <v>63.76069824410215</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.67028612212505</v>
+        <v>87.24020026102836</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.92561320101457</v>
+        <v>78.91411799052679</v>
       </c>
       <c r="AD7" t="n">
-        <v>51650.34897644471</v>
+        <v>63760.69824410215</v>
       </c>
       <c r="AE7" t="n">
-        <v>70670.28612212505</v>
+        <v>87240.20026102837</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.029271913411491e-06</v>
+        <v>1.30059934046256e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.161458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>63925.61320101457</v>
+        <v>78914.11799052679</v>
       </c>
     </row>
     <row r="8">
@@ -3313,28 +3313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>51.35437026647245</v>
+        <v>63.46471953412988</v>
       </c>
       <c r="AB8" t="n">
-        <v>70.26531499348206</v>
+        <v>86.83522913238541</v>
       </c>
       <c r="AC8" t="n">
-        <v>63.5592919485086</v>
+        <v>78.54779673802081</v>
       </c>
       <c r="AD8" t="n">
-        <v>51354.37026647245</v>
+        <v>63464.71953412988</v>
       </c>
       <c r="AE8" t="n">
-        <v>70265.31499348207</v>
+        <v>86835.2291323854</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.086989628309726e-06</v>
+        <v>1.311278628851792e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.144097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>63559.2919485086</v>
+        <v>78547.79673802081</v>
       </c>
     </row>
     <row r="9">
@@ -3419,28 +3419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>51.39306466420597</v>
+        <v>63.5034139318634</v>
       </c>
       <c r="AB9" t="n">
-        <v>70.3182583755374</v>
+        <v>86.88817251444073</v>
       </c>
       <c r="AC9" t="n">
-        <v>63.60718248848709</v>
+        <v>78.5956872779993</v>
       </c>
       <c r="AD9" t="n">
-        <v>51393.06466420597</v>
+        <v>63503.4139318634</v>
       </c>
       <c r="AE9" t="n">
-        <v>70318.25837553739</v>
+        <v>86888.17251444072</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.083260822342687e-06</v>
+        <v>1.310588702122369e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.144097222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>63607.18248848709</v>
+        <v>78595.6872779993</v>
       </c>
     </row>
   </sheetData>
@@ -3716,28 +3716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.74244185181853</v>
+        <v>84.18452526268106</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.11048870903365</v>
+        <v>115.1849814234902</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.17854031296656</v>
+        <v>104.1918884595988</v>
       </c>
       <c r="AD2" t="n">
-        <v>60742.44185181853</v>
+        <v>84184.52526268107</v>
       </c>
       <c r="AE2" t="n">
-        <v>83110.48870903364</v>
+        <v>115184.9814234902</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.426489155886142e-06</v>
+        <v>1.034372581420654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.896412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>75178.54031296656</v>
+        <v>104191.8884595988</v>
       </c>
     </row>
     <row r="3">
@@ -3822,28 +3822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.55543545085064</v>
+        <v>64.23389623754714</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.90866536600377</v>
+        <v>87.88765063168159</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.04580326793408</v>
+        <v>79.49977660650738</v>
       </c>
       <c r="AD3" t="n">
-        <v>52555.43545085064</v>
+        <v>64233.89623754715</v>
       </c>
       <c r="AE3" t="n">
-        <v>71908.66536600377</v>
+        <v>87887.65063168159</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.729963568717616e-06</v>
+        <v>1.2828349213396e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.335069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>65045.80326793408</v>
+        <v>79499.77660650738</v>
       </c>
     </row>
     <row r="4">
@@ -3928,28 +3928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.43789484970014</v>
+        <v>62.11635563639664</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.011352896213</v>
+        <v>84.99033816189082</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.42500623385563</v>
+        <v>76.87897957242892</v>
       </c>
       <c r="AD4" t="n">
-        <v>50437.89484970014</v>
+        <v>62116.35563639664</v>
       </c>
       <c r="AE4" t="n">
-        <v>69011.35289621299</v>
+        <v>84990.33816189082</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.158297691373641e-06</v>
+        <v>1.364482015701095e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.196180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>62425.00623385562</v>
+        <v>76878.97957242891</v>
       </c>
     </row>
     <row r="5">
@@ -4034,28 +4034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.11136051638918</v>
+        <v>60.78982130308567</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.19633009881338</v>
+        <v>83.1753153644912</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.78320666483874</v>
+        <v>75.23718000341204</v>
       </c>
       <c r="AD5" t="n">
-        <v>49111.36051638918</v>
+        <v>60789.82130308567</v>
       </c>
       <c r="AE5" t="n">
-        <v>67196.33009881337</v>
+        <v>83175.31536449119</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.380070888821875e-06</v>
+        <v>1.40675540981368e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.12962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>60783.20666483874</v>
+        <v>75237.18000341204</v>
       </c>
     </row>
     <row r="6">
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.32791454582541</v>
+        <v>60.00637533252191</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.12438475869168</v>
+        <v>82.10337002436951</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.81356628349321</v>
+        <v>74.26753962206651</v>
       </c>
       <c r="AD6" t="n">
-        <v>48327.91454582541</v>
+        <v>60006.37533252191</v>
       </c>
       <c r="AE6" t="n">
-        <v>66124.38475869168</v>
+        <v>82103.37002436951</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.517035668529617e-06</v>
+        <v>1.432863010636273e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.092013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>59813.56628349321</v>
+        <v>74267.53962206651</v>
       </c>
     </row>
     <row r="7">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.39514477100811</v>
+        <v>60.0736055577046</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.2163721187748</v>
+        <v>82.19535738445262</v>
       </c>
       <c r="AC7" t="n">
-        <v>59.89677449903508</v>
+        <v>74.3507478376084</v>
       </c>
       <c r="AD7" t="n">
-        <v>48395.1447710081</v>
+        <v>60073.6055577046</v>
       </c>
       <c r="AE7" t="n">
-        <v>66216.3721187748</v>
+        <v>82195.35738445263</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.515351452674425e-06</v>
+        <v>1.432541973101367e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.092013888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>59896.77449903508</v>
+        <v>74350.74783760839</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.88589809533771</v>
+        <v>53.26408924050787</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.67837776631669</v>
+        <v>72.87827674461104</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.07819574793167</v>
+        <v>65.92287629742549</v>
       </c>
       <c r="AD2" t="n">
-        <v>42885.89809533771</v>
+        <v>53264.08924050787</v>
       </c>
       <c r="AE2" t="n">
-        <v>58678.37776631668</v>
+        <v>72878.27674461104</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.957608610745539e-06</v>
+        <v>1.69476238113648e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.204861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>53078.19574793166</v>
+        <v>65922.87629742549</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.17052152654087</v>
+        <v>51.54871267171436</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.3313238676581</v>
+        <v>70.53122284611572</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.95514137934901</v>
+        <v>63.799821928891</v>
       </c>
       <c r="AD3" t="n">
-        <v>41170.52152654088</v>
+        <v>51548.71267171435</v>
       </c>
       <c r="AE3" t="n">
-        <v>56331.3238676581</v>
+        <v>70531.22284611572</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.513589995831453e-06</v>
+        <v>1.813171865963792e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.060185185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>50955.14137934901</v>
+        <v>63799.821928891</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.6098491535747</v>
+        <v>59.49639385375431</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.51014012709112</v>
+        <v>81.40559086632507</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.16250570094379</v>
+        <v>73.6363555275264</v>
       </c>
       <c r="AD2" t="n">
-        <v>48609.8491535747</v>
+        <v>59496.39385375431</v>
       </c>
       <c r="AE2" t="n">
-        <v>66510.14012709112</v>
+        <v>81405.59086632507</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.93788149211627e-06</v>
+        <v>1.408629807429682e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.418981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>60162.50570094379</v>
+        <v>73636.35552752641</v>
       </c>
     </row>
     <row r="3">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.41375602088679</v>
+        <v>55.30030072106641</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.76886038438641</v>
+        <v>75.66431112362037</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.96916563894426</v>
+        <v>68.44301546552687</v>
       </c>
       <c r="AD3" t="n">
-        <v>44413.75602088679</v>
+        <v>55300.30072106641</v>
       </c>
       <c r="AE3" t="n">
-        <v>60768.8603843864</v>
+        <v>75664.31112362037</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.041504872793222e-06</v>
+        <v>1.632703509461694e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.086226851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>54969.16563894426</v>
+        <v>68443.01546552687</v>
       </c>
     </row>
     <row r="4">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.74701691849501</v>
+        <v>54.63356161867463</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.8565985300412</v>
+        <v>74.75204926927516</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.14396877560991</v>
+        <v>67.61781860219254</v>
       </c>
       <c r="AD4" t="n">
-        <v>43747.01691849501</v>
+        <v>54633.56161867463</v>
       </c>
       <c r="AE4" t="n">
-        <v>59856.5985300412</v>
+        <v>74752.04926927516</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.19711060774284e-06</v>
+        <v>1.664296853439406e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.048611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>54143.96877560992</v>
+        <v>67617.81860219254</v>
       </c>
     </row>
   </sheetData>
@@ -5455,28 +5455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.04048415154508</v>
+        <v>49.00172110252085</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.41691276058611</v>
+        <v>67.04631661580923</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.3188775779256</v>
+        <v>60.64751025810723</v>
       </c>
       <c r="AD2" t="n">
-        <v>39040.48415154508</v>
+        <v>49001.72110252085</v>
       </c>
       <c r="AE2" t="n">
-        <v>53416.91276058611</v>
+        <v>67046.31661580924</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.727675838384386e-06</v>
+        <v>1.943482936716785e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.086226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>48318.8775779256</v>
+        <v>60647.51025810724</v>
       </c>
     </row>
     <row r="3">
@@ -5561,28 +5561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.10413542676376</v>
+        <v>49.06537237773953</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.50400324343595</v>
+        <v>67.13340709865946</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.39765626732478</v>
+        <v>60.72628894750653</v>
       </c>
       <c r="AD3" t="n">
-        <v>39104.13542676376</v>
+        <v>49065.37237773953</v>
       </c>
       <c r="AE3" t="n">
-        <v>53504.00324343595</v>
+        <v>67133.40709865946</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.726668430773328e-06</v>
+        <v>1.943258606718895e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.08912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>48397.65626732478</v>
+        <v>60726.28894750652</v>
       </c>
     </row>
   </sheetData>
@@ -5858,28 +5858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.15575561370548</v>
+        <v>86.82487541431721</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.41249106593474</v>
+        <v>118.7976249849846</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.1654041993155</v>
+        <v>107.4597463899625</v>
       </c>
       <c r="AD2" t="n">
-        <v>63155.75561370548</v>
+        <v>86824.87541431721</v>
       </c>
       <c r="AE2" t="n">
-        <v>86412.49106593475</v>
+        <v>118797.6249849846</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202489293321402e-06</v>
+        <v>9.836677742211359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78165.4041993155</v>
+        <v>107459.7463899625</v>
       </c>
     </row>
     <row r="3">
@@ -5964,28 +5964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.97212085485173</v>
+        <v>65.76409983642283</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.84703683550609</v>
+        <v>89.98134270348059</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.79917928490917</v>
+        <v>81.39364964548983</v>
       </c>
       <c r="AD3" t="n">
-        <v>53972.12085485173</v>
+        <v>65764.09983642283</v>
       </c>
       <c r="AE3" t="n">
-        <v>73847.03683550609</v>
+        <v>89981.34270348059</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.537704783821655e-06</v>
+        <v>1.236125468143165e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.38425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>66799.17928490917</v>
+        <v>81393.64964548983</v>
       </c>
     </row>
     <row r="4">
@@ -6070,28 +6070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.79020908659188</v>
+        <v>63.58218806816298</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.86164889502089</v>
+        <v>86.99595476299538</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.09871257944464</v>
+        <v>78.6931829400253</v>
       </c>
       <c r="AD4" t="n">
-        <v>51790.20908659188</v>
+        <v>63582.18806816298</v>
       </c>
       <c r="AE4" t="n">
-        <v>70861.64889502089</v>
+        <v>86995.95476299539</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.951261386206124e-06</v>
+        <v>1.31431924801393e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.242476851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>64098.71257944463</v>
+        <v>78693.18294002529</v>
       </c>
     </row>
     <row r="5">
@@ -6176,28 +6176,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.38680995893213</v>
+        <v>62.17878894050323</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.9414562949579</v>
+        <v>85.07576216293239</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.3617804661238</v>
+        <v>76.95625082670446</v>
       </c>
       <c r="AD5" t="n">
-        <v>50386.80995893213</v>
+        <v>62178.78894050323</v>
       </c>
       <c r="AE5" t="n">
-        <v>68941.4562949579</v>
+        <v>85075.7621629324</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.193763526180041e-06</v>
+        <v>1.360170671596527e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.164351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>62361.7804661238</v>
+        <v>76956.25082670446</v>
       </c>
     </row>
     <row r="6">
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.13666686178468</v>
+        <v>60.92864584335579</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.23095535702063</v>
+        <v>83.36526122499514</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.81452733699958</v>
+        <v>75.40899769758025</v>
       </c>
       <c r="AD6" t="n">
-        <v>49136.66686178468</v>
+        <v>60928.64584335579</v>
       </c>
       <c r="AE6" t="n">
-        <v>67230.95535702063</v>
+        <v>83365.26122499513</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.396099903183144e-06</v>
+        <v>1.398427698644351e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.106481481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>60814.52733699958</v>
+        <v>75408.99769758024</v>
       </c>
     </row>
     <row r="7">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.17094602303261</v>
+        <v>60.96292500460371</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.27785761772989</v>
+        <v>83.4121634857044</v>
       </c>
       <c r="AC7" t="n">
-        <v>60.8569533117745</v>
+        <v>75.45142367235516</v>
       </c>
       <c r="AD7" t="n">
-        <v>49170.94602303261</v>
+        <v>60962.92500460371</v>
       </c>
       <c r="AE7" t="n">
-        <v>67277.8576177299</v>
+        <v>83412.1634857044</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.382854892873733e-06</v>
+        <v>1.395923380215994e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>60856.9533117745</v>
+        <v>75451.42367235516</v>
       </c>
     </row>
   </sheetData>
@@ -6685,28 +6685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.86819113743043</v>
+        <v>47.58252877621129</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.81292974076447</v>
+        <v>65.10451506460684</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.86797644630668</v>
+        <v>58.8910315216154</v>
       </c>
       <c r="AD2" t="n">
-        <v>37868.19113743043</v>
+        <v>47582.52877621129</v>
       </c>
       <c r="AE2" t="n">
-        <v>51812.92974076448</v>
+        <v>65104.51506460684</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.760733748671896e-06</v>
+        <v>2.008456688190141e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>46867.97644630667</v>
+        <v>58891.0315216154</v>
       </c>
     </row>
   </sheetData>
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.52128350166515</v>
+        <v>77.22652398040722</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.59842539622196</v>
+        <v>105.6647371037358</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.47885637597102</v>
+        <v>95.58024289597198</v>
       </c>
       <c r="AD2" t="n">
-        <v>54521.28350166515</v>
+        <v>77226.52398040722</v>
       </c>
       <c r="AE2" t="n">
-        <v>74598.42539622195</v>
+        <v>105664.7371037358</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.108353968669864e-06</v>
+        <v>1.197228936154313e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.650462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>67478.85637597102</v>
+        <v>95580.24289597198</v>
       </c>
     </row>
     <row r="3">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.66393807958035</v>
+        <v>59.97397740021662</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.58414698188703</v>
+        <v>82.05904174409353</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.22944944538727</v>
+        <v>74.22744197064492</v>
       </c>
       <c r="AD3" t="n">
-        <v>48663.93807958035</v>
+        <v>59973.97740021662</v>
       </c>
       <c r="AE3" t="n">
-        <v>66584.14698188702</v>
+        <v>82059.04174409353</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.30574225854026e-06</v>
+        <v>1.431915386186175e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.216435185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>60229.44944538727</v>
+        <v>74227.44197064491</v>
       </c>
     </row>
     <row r="4">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.79538752457284</v>
+        <v>58.1054268452091</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.02751367789449</v>
+        <v>79.50240844010101</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.91681763566959</v>
+        <v>71.91481016092723</v>
       </c>
       <c r="AD4" t="n">
-        <v>46795.38752457284</v>
+        <v>58105.42684520911</v>
       </c>
       <c r="AE4" t="n">
-        <v>64027.51367789449</v>
+        <v>79502.408440101</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.696680495016106e-06</v>
+        <v>1.508538740261371e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.103587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>57916.81763566959</v>
+        <v>71914.81016092723</v>
       </c>
     </row>
     <row r="5">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.19205854320887</v>
+        <v>57.50209786384514</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.20201234859659</v>
+        <v>78.67690711080309</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.17010099464122</v>
+        <v>71.16809351989886</v>
       </c>
       <c r="AD5" t="n">
-        <v>46192.05854320887</v>
+        <v>57502.09786384513</v>
       </c>
       <c r="AE5" t="n">
-        <v>63202.01234859659</v>
+        <v>78676.90711080309</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.815182248541217e-06</v>
+        <v>1.53176492018365e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.071759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>57170.10099464122</v>
+        <v>71168.09351989886</v>
       </c>
     </row>
   </sheetData>
@@ -7597,28 +7597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.81661639297795</v>
+        <v>82.02303007041517</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.47548935482631</v>
+        <v>112.2275283429956</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.79502159887913</v>
+        <v>101.5166905502943</v>
       </c>
       <c r="AD2" t="n">
-        <v>58816.61639297795</v>
+        <v>82023.03007041517</v>
       </c>
       <c r="AE2" t="n">
-        <v>80475.48935482631</v>
+        <v>112227.5283429956</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.614817054088543e-06</v>
+        <v>1.079562605048289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.826967592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>72795.02159887913</v>
+        <v>101516.6905502943</v>
       </c>
     </row>
     <row r="3">
@@ -7703,28 +7703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.35737203969813</v>
+        <v>62.91799795968198</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.26942215203832</v>
+        <v>86.08718055457257</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.56300712561669</v>
+        <v>77.87114086658144</v>
       </c>
       <c r="AD3" t="n">
-        <v>51357.37203969814</v>
+        <v>62917.99795968198</v>
       </c>
       <c r="AE3" t="n">
-        <v>70269.42215203831</v>
+        <v>86087.18055457257</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.896174522559075e-06</v>
+        <v>1.325929600327832e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.300347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>63563.00712561668</v>
+        <v>77871.14086658144</v>
       </c>
     </row>
     <row r="4">
@@ -7809,28 +7809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.29311313927216</v>
+        <v>60.853739059256</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.44501205580154</v>
+        <v>83.26277045833577</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.00815476487938</v>
+        <v>75.31628850584413</v>
       </c>
       <c r="AD4" t="n">
-        <v>49293.11313927216</v>
+        <v>60853.739059256</v>
       </c>
       <c r="AE4" t="n">
-        <v>67445.01205580155</v>
+        <v>83262.77045833577</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.330661269347737e-06</v>
+        <v>1.409468501008589e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.164351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>61008.15476487938</v>
+        <v>75316.28850584413</v>
       </c>
     </row>
     <row r="5">
@@ -7915,28 +7915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.77414174613867</v>
+        <v>59.33476766612251</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.36668838342898</v>
+        <v>81.1844467859632</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.12818338685179</v>
+        <v>73.43631712781654</v>
       </c>
       <c r="AD5" t="n">
-        <v>47774.14174613867</v>
+        <v>59334.76766612251</v>
       </c>
       <c r="AE5" t="n">
-        <v>65366.68838342898</v>
+        <v>81184.4467859632</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.593426480640907e-06</v>
+        <v>1.459990449148139e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.08912037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>59128.18338685179</v>
+        <v>73436.31712781654</v>
       </c>
     </row>
     <row r="6">
@@ -8021,28 +8021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>47.72154791732329</v>
+        <v>59.28217383730713</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.29472718656783</v>
+        <v>81.11248558910205</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.06309006562087</v>
+        <v>73.37122380658562</v>
       </c>
       <c r="AD6" t="n">
-        <v>47721.54791732328</v>
+        <v>59282.17383730713</v>
       </c>
       <c r="AE6" t="n">
-        <v>65294.72718656783</v>
+        <v>81112.48558910206</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.579440855744275e-06</v>
+        <v>1.457301428739959e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.094907407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>59063.09006562087</v>
+        <v>73371.22380658562</v>
       </c>
     </row>
   </sheetData>
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.46286743949301</v>
+        <v>92.55581238741347</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.0928450018515</v>
+        <v>126.6389457826663</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.58573839118137</v>
+        <v>114.5527025360787</v>
       </c>
       <c r="AD2" t="n">
-        <v>80462.86743949301</v>
+        <v>92555.81238741346</v>
       </c>
       <c r="AE2" t="n">
-        <v>110092.8450018515</v>
+        <v>126638.9457826663</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789850853757171e-06</v>
+        <v>8.923128847489729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.197337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>99585.73839118137</v>
+        <v>114552.7025360787</v>
       </c>
     </row>
     <row r="3">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.72851351430421</v>
+        <v>68.73611760765301</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.61845487562887</v>
+        <v>94.04778853424604</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.21065848050232</v>
+        <v>85.07199959346087</v>
       </c>
       <c r="AD3" t="n">
-        <v>56728.51351430421</v>
+        <v>68736.11760765301</v>
       </c>
       <c r="AE3" t="n">
-        <v>77618.45487562887</v>
+        <v>94047.78853424604</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.191602188379586e-06</v>
+        <v>1.153448526606489e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.473958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70210.65848050232</v>
+        <v>85071.99959346087</v>
       </c>
     </row>
     <row r="4">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.04431009660952</v>
+        <v>66.05191418995834</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.94580934084364</v>
+        <v>90.37514299946079</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.88852508096542</v>
+        <v>81.74986619392398</v>
       </c>
       <c r="AD4" t="n">
-        <v>54044.31009660952</v>
+        <v>66051.91418995833</v>
       </c>
       <c r="AE4" t="n">
-        <v>73945.80934084364</v>
+        <v>90375.14299946079</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.66031725755693e-06</v>
+        <v>1.24076658895803e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.300347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>66888.52508096542</v>
+        <v>81749.86619392398</v>
       </c>
     </row>
     <row r="5">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.63804069052706</v>
+        <v>64.64564478387587</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.02168949921496</v>
+        <v>88.4510231578321</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.14804053650199</v>
+        <v>80.00938164946055</v>
       </c>
       <c r="AD5" t="n">
-        <v>52638.04069052706</v>
+        <v>64645.64478387586</v>
       </c>
       <c r="AE5" t="n">
-        <v>72021.68949921496</v>
+        <v>88451.0231578321</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.88800457543944e-06</v>
+        <v>1.283183009352651e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.225115740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>65148.040536502</v>
+        <v>80009.38164946056</v>
       </c>
     </row>
     <row r="6">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>51.56701863958597</v>
+        <v>63.57462273293478</v>
       </c>
       <c r="AB6" t="n">
-        <v>70.55626987895995</v>
+        <v>86.98560353757712</v>
       </c>
       <c r="AC6" t="n">
-        <v>63.82247850807433</v>
+        <v>78.6838196210329</v>
       </c>
       <c r="AD6" t="n">
-        <v>51567.01863958597</v>
+        <v>63574.62273293477</v>
       </c>
       <c r="AE6" t="n">
-        <v>70556.26987895995</v>
+        <v>86985.60353757712</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.066300526759668e-06</v>
+        <v>1.316398192772573e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.167245370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>63822.47850807432</v>
+        <v>78683.81962103289</v>
       </c>
     </row>
     <row r="7">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.54315205363796</v>
+        <v>62.55075614698676</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.15537044626075</v>
+        <v>85.58470410487789</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.55527895105678</v>
+        <v>77.41662006401532</v>
       </c>
       <c r="AD7" t="n">
-        <v>50543.15205363796</v>
+        <v>62550.75614698677</v>
       </c>
       <c r="AE7" t="n">
-        <v>69155.37044626074</v>
+        <v>85584.70410487789</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.203569351514225e-06</v>
+        <v>1.341970333689395e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.126736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>62555.27895105677</v>
+        <v>77416.62006401533</v>
       </c>
     </row>
     <row r="8">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>50.59162899745022</v>
+        <v>62.59923309079903</v>
       </c>
       <c r="AB8" t="n">
-        <v>69.22169873943648</v>
+        <v>85.65103239805362</v>
       </c>
       <c r="AC8" t="n">
-        <v>62.61527696502417</v>
+        <v>77.47661807798274</v>
       </c>
       <c r="AD8" t="n">
-        <v>50591.62899745022</v>
+        <v>62599.23309079903</v>
       </c>
       <c r="AE8" t="n">
-        <v>69221.69873943647</v>
+        <v>85651.03239805362</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.197852022908945e-06</v>
+        <v>1.340905238734125e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.126736111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>62615.27696502417</v>
+        <v>77476.61807798274</v>
       </c>
     </row>
   </sheetData>
@@ -9251,28 +9251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.75040385610762</v>
+        <v>61.95622819978814</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.43894150570381</v>
+        <v>84.77124473879923</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.81178638658117</v>
+        <v>76.68079611813759</v>
       </c>
       <c r="AD2" t="n">
-        <v>50750.40385610762</v>
+        <v>61956.22819978814</v>
       </c>
       <c r="AE2" t="n">
-        <v>69438.94150570381</v>
+        <v>84771.24473879923</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.607763632068596e-06</v>
+        <v>1.324524472271119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.508680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>62811.78638658117</v>
+        <v>76680.79611813759</v>
       </c>
     </row>
     <row r="3">
@@ -9357,28 +9357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.0191727450536</v>
+        <v>57.05440488814192</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.96546237237756</v>
+        <v>78.06435383062612</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.95612701615249</v>
+        <v>70.61400146505787</v>
       </c>
       <c r="AD3" t="n">
-        <v>46019.1727450536</v>
+        <v>57054.40488814191</v>
       </c>
       <c r="AE3" t="n">
-        <v>62965.46237237756</v>
+        <v>78064.35383062612</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.725981170365998e-06</v>
+        <v>1.548670882050309e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.144097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>56956.12701615249</v>
+        <v>70614.00146505787</v>
       </c>
     </row>
     <row r="4">
@@ -9463,28 +9463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.51159430004</v>
+        <v>55.54682644312832</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.902727034244</v>
+        <v>76.00161849249257</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.09025624362251</v>
+        <v>68.74813069252789</v>
       </c>
       <c r="AD4" t="n">
-        <v>44511.59430004</v>
+        <v>55546.82644312832</v>
       </c>
       <c r="AE4" t="n">
-        <v>60902.727034244</v>
+        <v>76001.61849249256</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.087247046503259e-06</v>
+        <v>1.621086531365911e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.048611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>55090.25624362251</v>
+        <v>68748.13069252789</v>
       </c>
     </row>
   </sheetData>
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.78535408672494</v>
+        <v>55.34535174757628</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.27729725181558</v>
+        <v>75.72595192560216</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.42907800534177</v>
+        <v>68.49877335588096</v>
       </c>
       <c r="AD2" t="n">
-        <v>44785.35408672495</v>
+        <v>55345.35174757628</v>
       </c>
       <c r="AE2" t="n">
-        <v>61277.29725181557</v>
+        <v>75725.95192560216</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.599406494580985e-06</v>
+        <v>1.589843363771554e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.271412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>55429.07800534177</v>
+        <v>68498.77335588096</v>
       </c>
     </row>
     <row r="3">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.00735050720575</v>
+        <v>52.56734816806053</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.47631019728732</v>
+        <v>71.92496487124232</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.99085182068023</v>
+        <v>65.06054717126918</v>
       </c>
       <c r="AD3" t="n">
-        <v>42007.35050720575</v>
+        <v>52567.34816806053</v>
       </c>
       <c r="AE3" t="n">
-        <v>57476.31019728732</v>
+        <v>71924.96487124232</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.420233552601928e-06</v>
+        <v>1.761565517590973e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.048611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>51990.85182068023</v>
+        <v>65060.54717126917</v>
       </c>
     </row>
   </sheetData>
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.75259451462255</v>
+        <v>50.93272837149908</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.75949769231573</v>
+        <v>69.68840595125222</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.43788949161653</v>
+        <v>63.03744229557206</v>
       </c>
       <c r="AD2" t="n">
-        <v>40752.59451462255</v>
+        <v>50932.72837149908</v>
       </c>
       <c r="AE2" t="n">
-        <v>55759.49769231572</v>
+        <v>69688.40595125222</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.414122011685389e-06</v>
+        <v>1.829108768338159e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.120949074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>50437.88949161653</v>
+        <v>63037.44229557206</v>
       </c>
     </row>
     <row r="3">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.12367969771429</v>
+        <v>50.30381355459073</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.8989886940625</v>
+        <v>68.82789695299513</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.65950626442206</v>
+        <v>62.25905906837638</v>
       </c>
       <c r="AD3" t="n">
-        <v>40123.67969771429</v>
+        <v>50303.81355459074</v>
       </c>
       <c r="AE3" t="n">
-        <v>54898.98869406249</v>
+        <v>68827.89695299513</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.658443385311191e-06</v>
+        <v>1.882220711113738e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.063078703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>49659.50626442206</v>
+        <v>62259.05906837638</v>
       </c>
     </row>
   </sheetData>
@@ -17707,28 +17707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.55546805864225</v>
+        <v>45.9825940536647</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.01680411112024</v>
+        <v>62.91541379308132</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.24327052587218</v>
+        <v>56.91085500302064</v>
       </c>
       <c r="AD2" t="n">
-        <v>36555.46805864225</v>
+        <v>45982.5940536647</v>
       </c>
       <c r="AE2" t="n">
-        <v>50016.80411112024</v>
+        <v>62915.41379308132</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.685494915612159e-06</v>
+        <v>2.065868384832602e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.20775462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>45243.27052587218</v>
+        <v>56910.85500302064</v>
       </c>
     </row>
   </sheetData>
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.56471241493612</v>
+        <v>79.52588416267135</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.3943349850791</v>
+        <v>108.8108231457199</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.00792827775227</v>
+        <v>98.42607090166962</v>
       </c>
       <c r="AD2" t="n">
-        <v>56564.71241493612</v>
+        <v>79525.88416267134</v>
       </c>
       <c r="AE2" t="n">
-        <v>77394.3349850791</v>
+        <v>108810.8231457199</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.862196862151223e-06</v>
+        <v>1.13760514054199e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>70007.92827775227</v>
+        <v>98426.07090166962</v>
       </c>
     </row>
     <row r="3">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.98719152385377</v>
+        <v>61.42519647898662</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.39468072216289</v>
+        <v>84.04466371093289</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.86718838659183</v>
+        <v>76.02355896380767</v>
       </c>
       <c r="AD3" t="n">
-        <v>49987.19152385378</v>
+        <v>61425.19647898662</v>
       </c>
       <c r="AE3" t="n">
-        <v>68394.68072216288</v>
+        <v>84044.66371093289</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.10394408700305e-06</v>
+        <v>1.378575899365468e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.256944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>61867.18838659184</v>
+        <v>76023.55896380768</v>
       </c>
     </row>
     <row r="4">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.91043215653191</v>
+        <v>59.34843711166476</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.55316693563748</v>
+        <v>81.20314992440748</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.29686468776186</v>
+        <v>73.45323526497771</v>
       </c>
       <c r="AD4" t="n">
-        <v>47910.43215653191</v>
+        <v>59348.43711166476</v>
       </c>
       <c r="AE4" t="n">
-        <v>65553.16693563748</v>
+        <v>81203.14992440748</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.547310495876405e-06</v>
+        <v>1.464614617910461e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.123842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>59296.86468776186</v>
+        <v>73453.2352649777</v>
       </c>
     </row>
     <row r="5">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.84699418579721</v>
+        <v>58.28499914093005</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.09812418850684</v>
+        <v>79.74810717727685</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.98068917825159</v>
+        <v>72.13705975546743</v>
       </c>
       <c r="AD5" t="n">
-        <v>46846.99418579721</v>
+        <v>58284.99914093006</v>
       </c>
       <c r="AE5" t="n">
-        <v>64098.12418850684</v>
+        <v>79748.10717727685</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.723903713203773e-06</v>
+        <v>1.498883912603295e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.074652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>57980.6891782516</v>
+        <v>72137.05975546743</v>
       </c>
     </row>
   </sheetData>
@@ -18619,28 +18619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.32811242980392</v>
+        <v>90.31503264247927</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1719790188521</v>
+        <v>123.5730120794234</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.94363575813736</v>
+        <v>111.7793772424074</v>
       </c>
       <c r="AD2" t="n">
-        <v>78328.11242980392</v>
+        <v>90315.03264247927</v>
       </c>
       <c r="AE2" t="n">
-        <v>107171.9790188521</v>
+        <v>123573.0120794235</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.942320708617645e-06</v>
+        <v>9.273732172083271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>96943.63575813736</v>
+        <v>111779.3772424074</v>
       </c>
     </row>
     <row r="3">
@@ -18725,28 +18725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.2552278230006</v>
+        <v>67.15680718110433</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.60264039601083</v>
+        <v>91.88690633438456</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.38723050560498</v>
+        <v>83.11734895793626</v>
       </c>
       <c r="AD3" t="n">
-        <v>55255.2278230006</v>
+        <v>67156.80718110433</v>
       </c>
       <c r="AE3" t="n">
-        <v>75602.64039601083</v>
+        <v>91886.90633438456</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.375481619144431e-06</v>
+        <v>1.19629041678524e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>68387.23050560498</v>
+        <v>83117.34895793626</v>
       </c>
     </row>
     <row r="4">
@@ -18831,28 +18831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.74653041674272</v>
+        <v>64.64810977484645</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.17012992885206</v>
+        <v>88.45439586722578</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.28231401987205</v>
+        <v>80.01243247220334</v>
       </c>
       <c r="AD4" t="n">
-        <v>52746.53041674272</v>
+        <v>64648.10977484645</v>
       </c>
       <c r="AE4" t="n">
-        <v>72170.12992885207</v>
+        <v>88454.39586722579</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.841689946923527e-06</v>
+        <v>1.283769385130607e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.256944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>65282.31401987205</v>
+        <v>80012.43247220335</v>
       </c>
     </row>
     <row r="5">
@@ -18937,28 +18937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.39906754626406</v>
+        <v>63.30064690436779</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.32647178359773</v>
+        <v>86.61073772197145</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.61461202040974</v>
+        <v>78.34473047274103</v>
       </c>
       <c r="AD5" t="n">
-        <v>51399.06754626406</v>
+        <v>63300.64690436779</v>
       </c>
       <c r="AE5" t="n">
-        <v>70326.47178359772</v>
+        <v>86610.73772197144</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.078317095657754e-06</v>
+        <v>1.328169919441921e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.181712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>63614.61202040974</v>
+        <v>78344.73047274104</v>
       </c>
     </row>
     <row r="6">
@@ -19043,28 +19043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.35256787043674</v>
+        <v>62.25414722854046</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.89460475882419</v>
+        <v>85.17887069719791</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.31940037484215</v>
+        <v>77.04951882717346</v>
       </c>
       <c r="AD6" t="n">
-        <v>50352.56787043674</v>
+        <v>62254.14722854046</v>
       </c>
       <c r="AE6" t="n">
-        <v>68894.60475882419</v>
+        <v>85178.87069719791</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.203062786294318e-06</v>
+        <v>1.351577103896137e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.144097222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>62319.40037484215</v>
+        <v>77049.51882717345</v>
       </c>
     </row>
     <row r="7">
@@ -19149,28 +19149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.63780023348966</v>
+        <v>61.53937959159338</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.91662814463106</v>
+        <v>84.2008940830048</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.43476047610849</v>
+        <v>76.16487892843979</v>
       </c>
       <c r="AD7" t="n">
-        <v>49637.80023348966</v>
+        <v>61539.37959159338</v>
       </c>
       <c r="AE7" t="n">
-        <v>67916.62814463106</v>
+        <v>84200.89408300479</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.314890865833726e-06</v>
+        <v>1.372560437842043e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.112268518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>61434.76047610849</v>
+        <v>76164.87892843979</v>
       </c>
     </row>
   </sheetData>
@@ -19446,28 +19446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.03901275384326</v>
+        <v>44.11395437105831</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.94192306181792</v>
+        <v>60.35865854077596</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.36641321179526</v>
+        <v>54.59811288356595</v>
       </c>
       <c r="AD2" t="n">
-        <v>35039.01275384326</v>
+        <v>44113.95437105831</v>
       </c>
       <c r="AE2" t="n">
-        <v>47941.92306181792</v>
+        <v>60358.65854077596</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.239926453264154e-06</v>
+        <v>2.060743073545415e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>43366.41321179526</v>
+        <v>54598.11288356595</v>
       </c>
     </row>
   </sheetData>
@@ -19743,28 +19743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.69279590616404</v>
+        <v>57.42149153448624</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.88714329956486</v>
+        <v>78.56661797487403</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.78984400923664</v>
+        <v>71.06833022431107</v>
       </c>
       <c r="AD2" t="n">
-        <v>46692.79590616404</v>
+        <v>57421.49153448624</v>
       </c>
       <c r="AE2" t="n">
-        <v>63887.14329956486</v>
+        <v>78566.61797487404</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.2592484652717e-06</v>
+        <v>1.494885028291096e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>57789.84400923664</v>
+        <v>71068.33022431107</v>
       </c>
     </row>
     <row r="3">
@@ -19849,28 +19849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.02548598328345</v>
+        <v>53.75418161160565</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.86936807278695</v>
+        <v>73.54884274809612</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.25095820760905</v>
+        <v>66.52944442268347</v>
       </c>
       <c r="AD3" t="n">
-        <v>43025.48598328345</v>
+        <v>53754.18161160565</v>
       </c>
       <c r="AE3" t="n">
-        <v>58869.36807278695</v>
+        <v>73548.84274809613</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.291975646475665e-06</v>
+        <v>1.707552828391432e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.05150462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>53250.95820760904</v>
+        <v>66529.44442268347</v>
       </c>
     </row>
     <row r="4">
@@ -19955,28 +19955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.89742413085981</v>
+        <v>53.62611975918201</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.69414819661083</v>
+        <v>73.37362287192001</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.09246107049247</v>
+        <v>66.37094728556691</v>
       </c>
       <c r="AD4" t="n">
-        <v>42897.42413085981</v>
+        <v>53626.11975918201</v>
       </c>
       <c r="AE4" t="n">
-        <v>58694.14819661083</v>
+        <v>73373.62287192</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.326542936425453e-06</v>
+        <v>1.714671213229992e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.042824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>53092.46107049247</v>
+        <v>66370.94728556692</v>
       </c>
     </row>
   </sheetData>
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.6167977952508</v>
+        <v>63.96344597859581</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.99262403272759</v>
+        <v>87.51760865596123</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.12174903734254</v>
+        <v>79.16505091759248</v>
       </c>
       <c r="AD2" t="n">
-        <v>52616.79779525079</v>
+        <v>63963.44597859582</v>
       </c>
       <c r="AE2" t="n">
-        <v>71992.62403272759</v>
+        <v>87517.60865596123</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.345896135871863e-06</v>
+        <v>1.257238859941337e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.581018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>65121.74903734254</v>
+        <v>79165.05091759248</v>
       </c>
     </row>
     <row r="3">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.24676182181722</v>
+        <v>58.42281780457004</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.64510390461254</v>
+        <v>79.9366767529993</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.47546591794318</v>
+        <v>72.30763251554207</v>
       </c>
       <c r="AD3" t="n">
-        <v>47246.76182181721</v>
+        <v>58422.81780457005</v>
       </c>
       <c r="AE3" t="n">
-        <v>64645.10390461254</v>
+        <v>79936.67675299931</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.529971370557102e-06</v>
+        <v>1.491825964152729e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.175925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>58475.46591794318</v>
+        <v>72307.63251554206</v>
       </c>
     </row>
     <row r="4">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.57568790307158</v>
+        <v>56.7517438858244</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.35866684640768</v>
+        <v>77.65023969479445</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.40724320353811</v>
+        <v>70.23940980113699</v>
       </c>
       <c r="AD4" t="n">
-        <v>45575.68790307158</v>
+        <v>56751.7438858244</v>
       </c>
       <c r="AE4" t="n">
-        <v>62358.66684640768</v>
+        <v>77650.23969479445</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.912701616108802e-06</v>
+        <v>1.567651872311306e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.068865740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>56407.24320353811</v>
+        <v>70239.40980113699</v>
       </c>
     </row>
     <row r="5">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.33485445922703</v>
+        <v>56.51091044197987</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.02914790371806</v>
+        <v>77.32072075210485</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.10917308625594</v>
+        <v>69.94133968385484</v>
       </c>
       <c r="AD5" t="n">
-        <v>45334.85445922703</v>
+        <v>56510.91044197987</v>
       </c>
       <c r="AE5" t="n">
-        <v>62029.14790371806</v>
+        <v>77320.72075210484</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.976206989594309e-06</v>
+        <v>1.580233456007538e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.054398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>56109.17308625593</v>
+        <v>69941.33968385484</v>
       </c>
     </row>
   </sheetData>
